--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H2">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>28.704376160584</v>
+        <v>7.704840858667555</v>
       </c>
       <c r="R2">
-        <v>258.339385445256</v>
+        <v>69.343567728008</v>
       </c>
       <c r="S2">
-        <v>0.03147611395238365</v>
+        <v>0.01039305786589443</v>
       </c>
       <c r="T2">
-        <v>0.03147611395238365</v>
+        <v>0.01039305786589443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H3">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>35.69647329546666</v>
+        <v>8.037375257955556</v>
       </c>
       <c r="R3">
-        <v>321.2682596592</v>
+        <v>72.33637732160001</v>
       </c>
       <c r="S3">
-        <v>0.03914337851693861</v>
+        <v>0.01084161343214117</v>
       </c>
       <c r="T3">
-        <v>0.03914337851693862</v>
+        <v>0.01084161343214117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H4">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>26.74610803696934</v>
+        <v>3.766517091468444</v>
       </c>
       <c r="R4">
-        <v>240.714972332724</v>
+        <v>33.898653823216</v>
       </c>
       <c r="S4">
-        <v>0.02932875250953661</v>
+        <v>0.005080653942446465</v>
       </c>
       <c r="T4">
-        <v>0.02932875250953662</v>
+        <v>0.005080653942446465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H5">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I5">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J5">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>4.331139567056</v>
+        <v>0.9762291269359999</v>
       </c>
       <c r="R5">
-        <v>38.980256103504</v>
+        <v>8.786062142423999</v>
       </c>
       <c r="S5">
-        <v>0.004749360926489426</v>
+        <v>0.001316835219925886</v>
       </c>
       <c r="T5">
-        <v>0.004749360926489427</v>
+        <v>0.001316835219925886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H6">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I6">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J6">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>23.00637306978933</v>
+        <v>2.784010469016</v>
       </c>
       <c r="R6">
-        <v>207.057357628104</v>
+        <v>25.056094221144</v>
       </c>
       <c r="S6">
-        <v>0.02522790310176197</v>
+        <v>0.003755351010422163</v>
       </c>
       <c r="T6">
-        <v>0.02522790310176197</v>
+        <v>0.003755351010422164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.988124</v>
       </c>
       <c r="I7">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J7">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>171.4669927248453</v>
+        <v>204.4123621575808</v>
       </c>
       <c r="R7">
-        <v>1543.202934523608</v>
+        <v>1839.711259418228</v>
       </c>
       <c r="S7">
-        <v>0.1880241037772814</v>
+        <v>0.2757317830929611</v>
       </c>
       <c r="T7">
-        <v>0.1880241037772814</v>
+        <v>0.2757317830929611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.988124</v>
       </c>
       <c r="I8">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J8">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>213.2346264072888</v>
+        <v>213.2346264072889</v>
       </c>
       <c r="R8">
-        <v>1919.111637665599</v>
+        <v>1919.1116376656</v>
       </c>
       <c r="S8">
-        <v>0.2338248830715304</v>
+        <v>0.2876321330855609</v>
       </c>
       <c r="T8">
-        <v>0.2338248830715304</v>
+        <v>0.2876321330855609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>11.988124</v>
       </c>
       <c r="I9">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J9">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>159.7691824597258</v>
+        <v>99.9271328112951</v>
       </c>
       <c r="R9">
-        <v>1437.922642137532</v>
+        <v>899.3441953016559</v>
       </c>
       <c r="S9">
-        <v>0.1751967353356753</v>
+        <v>0.1347916839206865</v>
       </c>
       <c r="T9">
-        <v>0.1751967353356753</v>
+        <v>0.1347916839206865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>11.988124</v>
       </c>
       <c r="I10">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J10">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>25.87227370767466</v>
+        <v>25.89973050767599</v>
       </c>
       <c r="R10">
-        <v>232.8504633690719</v>
+        <v>233.097574569084</v>
       </c>
       <c r="S10">
-        <v>0.02837053942138203</v>
+        <v>0.03493613986517801</v>
       </c>
       <c r="T10">
-        <v>0.02837053942138203</v>
+        <v>0.034936139865178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.988124</v>
       </c>
       <c r="I11">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J11">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>137.4296930096524</v>
+        <v>73.860857956956</v>
       </c>
       <c r="R11">
-        <v>1236.867237086872</v>
+        <v>664.747721612604</v>
       </c>
       <c r="S11">
-        <v>0.1507001111402977</v>
+        <v>0.09963089242884184</v>
       </c>
       <c r="T11">
-        <v>0.1507001111402977</v>
+        <v>0.09963089242884184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H12">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I12">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J12">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>6.468363767501334</v>
+        <v>25.04202868479978</v>
       </c>
       <c r="R12">
-        <v>58.21527390751201</v>
+        <v>225.378258163198</v>
       </c>
       <c r="S12">
-        <v>0.007092958714459631</v>
+        <v>0.03377918609541809</v>
       </c>
       <c r="T12">
-        <v>0.007092958714459631</v>
+        <v>0.03377918609541809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H13">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I13">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J13">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>8.043992079822221</v>
+        <v>26.12282141217778</v>
       </c>
       <c r="R13">
-        <v>72.39592871839999</v>
+        <v>235.1053927096</v>
       </c>
       <c r="S13">
-        <v>0.008820732069566233</v>
+        <v>0.03523706712926725</v>
       </c>
       <c r="T13">
-        <v>0.008820732069566234</v>
+        <v>0.03523706712926724</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H14">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I14">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J14">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>6.027079466216445</v>
+        <v>12.24181404606622</v>
       </c>
       <c r="R14">
-        <v>54.24371519594801</v>
+        <v>110.176326414596</v>
       </c>
       <c r="S14">
-        <v>0.006609063336454017</v>
+        <v>0.0165129798393121</v>
       </c>
       <c r="T14">
-        <v>0.006609063336454017</v>
+        <v>0.0165129798393121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H15">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I15">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J15">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>0.9759970427786666</v>
+        <v>3.172908856666</v>
       </c>
       <c r="R15">
-        <v>8.783973385008</v>
+        <v>28.556179709994</v>
       </c>
       <c r="S15">
-        <v>0.00107024078711299</v>
+        <v>0.004279935946171048</v>
       </c>
       <c r="T15">
-        <v>0.00107024078711299</v>
+        <v>0.004279935946171047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H16">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I16">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J16">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>5.184352001023111</v>
+        <v>9.048502273145999</v>
       </c>
       <c r="R16">
-        <v>46.659168009208</v>
+        <v>81.43652045831401</v>
       </c>
       <c r="S16">
-        <v>0.005684960838046362</v>
+        <v>0.01220552240461808</v>
       </c>
       <c r="T16">
-        <v>0.005684960838046362</v>
+        <v>0.01220552240461808</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H17">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I17">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J17">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>11.40515465662933</v>
+        <v>8.315496865057666</v>
       </c>
       <c r="R17">
-        <v>102.646391909664</v>
+        <v>74.839471785519</v>
       </c>
       <c r="S17">
-        <v>0.01250645356681112</v>
+        <v>0.01121677159690924</v>
       </c>
       <c r="T17">
-        <v>0.01250645356681112</v>
+        <v>0.01121677159690924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H18">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I18">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J18">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>14.18333554275555</v>
+        <v>8.674386659866668</v>
       </c>
       <c r="R18">
-        <v>127.6500198848</v>
+        <v>78.06947993880001</v>
       </c>
       <c r="S18">
-        <v>0.01555289978333339</v>
+        <v>0.01170087794944122</v>
       </c>
       <c r="T18">
-        <v>0.01555289978333339</v>
+        <v>0.01170087794944122</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,13 +1579,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H19">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I19">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J19">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>10.62707292149511</v>
+        <v>4.065036727015333</v>
       </c>
       <c r="R19">
-        <v>95.643656293456</v>
+        <v>36.585330543138</v>
       </c>
       <c r="S19">
-        <v>0.01165323908751568</v>
+        <v>0.005483327002572599</v>
       </c>
       <c r="T19">
-        <v>0.01165323908751568</v>
+        <v>0.005483327002572598</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H20">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I20">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J20">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>1.720898455530666</v>
+        <v>1.053601286973</v>
       </c>
       <c r="R20">
-        <v>15.488086099776</v>
+        <v>9.482411582756999</v>
       </c>
       <c r="S20">
-        <v>0.001887071002126326</v>
+        <v>0.001421202506833464</v>
       </c>
       <c r="T20">
-        <v>0.001887071002126326</v>
+        <v>0.001421202506833464</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H21">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I21">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J21">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>9.141158180241776</v>
+        <v>3.004660414413</v>
       </c>
       <c r="R21">
-        <v>82.270423622176</v>
+        <v>27.041943729717</v>
       </c>
       <c r="S21">
-        <v>0.0100238421810105</v>
+        <v>0.004052985665398548</v>
       </c>
       <c r="T21">
-        <v>0.0100238421810105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.201677</v>
-      </c>
-      <c r="I22">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J22">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>42.909214</v>
-      </c>
-      <c r="N22">
-        <v>128.727642</v>
-      </c>
-      <c r="O22">
-        <v>0.2422627718984814</v>
-      </c>
-      <c r="P22">
-        <v>0.2422627718984814</v>
-      </c>
-      <c r="Q22">
-        <v>2.884600517292667</v>
-      </c>
-      <c r="R22">
-        <v>25.961404655634</v>
-      </c>
-      <c r="S22">
-        <v>0.003163141887545607</v>
-      </c>
-      <c r="T22">
-        <v>0.003163141887545607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.201677</v>
-      </c>
-      <c r="I23">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J23">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>53.36146666666665</v>
-      </c>
-      <c r="N23">
-        <v>160.0844</v>
-      </c>
-      <c r="O23">
-        <v>0.3012755448569877</v>
-      </c>
-      <c r="P23">
-        <v>0.3012755448569877</v>
-      </c>
-      <c r="Q23">
-        <v>3.587260170977777</v>
-      </c>
-      <c r="R23">
-        <v>32.28534153879999</v>
-      </c>
-      <c r="S23">
-        <v>0.003933651415619077</v>
-      </c>
-      <c r="T23">
-        <v>0.003933651415619078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.201677</v>
-      </c>
-      <c r="I24">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J24">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>39.98186433333333</v>
-      </c>
-      <c r="N24">
-        <v>119.945593</v>
-      </c>
-      <c r="O24">
-        <v>0.2257351364921847</v>
-      </c>
-      <c r="P24">
-        <v>0.2257351364921847</v>
-      </c>
-      <c r="Q24">
-        <v>2.687807484384556</v>
-      </c>
-      <c r="R24">
-        <v>24.190267359461</v>
-      </c>
-      <c r="S24">
-        <v>0.002947346223003115</v>
-      </c>
-      <c r="T24">
-        <v>0.002947346223003115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.201677</v>
-      </c>
-      <c r="I25">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J25">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.474475999999999</v>
-      </c>
-      <c r="N25">
-        <v>19.423428</v>
-      </c>
-      <c r="O25">
-        <v>0.03655449159125106</v>
-      </c>
-      <c r="P25">
-        <v>0.03655449159125106</v>
-      </c>
-      <c r="Q25">
-        <v>0.4352509654173333</v>
-      </c>
-      <c r="R25">
-        <v>3.917258688755999</v>
-      </c>
-      <c r="S25">
-        <v>0.0004772794541402862</v>
-      </c>
-      <c r="T25">
-        <v>0.0004772794541402862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.201677</v>
-      </c>
-      <c r="I26">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J26">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>34.39145933333333</v>
-      </c>
-      <c r="N26">
-        <v>103.174378</v>
-      </c>
-      <c r="O26">
-        <v>0.1941720551610951</v>
-      </c>
-      <c r="P26">
-        <v>0.1941720551610951</v>
-      </c>
-      <c r="Q26">
-        <v>2.311988781322889</v>
-      </c>
-      <c r="R26">
-        <v>20.807899031906</v>
-      </c>
-      <c r="S26">
-        <v>0.002535237899978498</v>
-      </c>
-      <c r="T26">
-        <v>0.002535237899978498</v>
+        <v>0.004052985665398548</v>
       </c>
     </row>
   </sheetData>
